--- a/费用报销单模板-12月.xlsx
+++ b/费用报销单模板-12月.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\1\hotpoor_autoclick_xhs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A11CC4-DC32-4AB3-B02F-A23E08E3A426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA190FB0-AFBC-4A21-B0A1-B0291E1A412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -184,12 +185,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -233,6 +234,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="黑体"/>
@@ -241,13 +276,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="黑体"/>
       <family val="3"/>
@@ -263,9 +291,41 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="8"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -371,41 +431,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,16 +465,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,13 +531,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,462 +814,462 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6" style="19" customWidth="1"/>
     <col min="2" max="3" width="11.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.3984375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.3984375" style="4" customWidth="1"/>
+    <col min="6" max="7" width="11.3984375" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.69921875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="3.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="29" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="23">
         <v>161</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="23">
         <v>54</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="23">
         <v>191</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="21">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="23">
         <v>50.2</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="23">
         <v>30.82</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="23">
         <v>113.3</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="21">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="23">
         <v>378.98</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="12"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="12"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="12"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="12"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="12"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="12"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="12"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="12"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="12"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="12"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28">
         <f>SUM(E4:E23)</f>
         <v>979.3</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="29">
         <f>C24</f>
         <v>979.3</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F23">
       <formula1>"有,无"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1202,7 +1280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -1217,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
